--- a/backend/templates/monthly_template/monthly_report.xlsx
+++ b/backend/templates/monthly_template/monthly_report.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">THEO DÕI THÀNH TÍCH</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ghi chú</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kết quả</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +118,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFCD5B5"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -173,7 +182,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,10 +219,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -226,7 +231,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -307,10 +320,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -322,7 +335,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="1" width="8.85"/>
   </cols>
   <sheetData>
@@ -358,6 +371,9 @@
       </c>
       <c r="G2" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -368,6 +384,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5"/>
@@ -377,6 +394,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
@@ -386,6 +404,7 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
@@ -395,51 +414,57 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
       <c r="F7" s="5"/>
       <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="7"/>
       <c r="F8" s="5"/>
       <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" s="8" customFormat="true" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" s="8" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
@@ -449,24 +474,27 @@
       <c r="E12" s="7"/>
       <c r="F12" s="5"/>
       <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="5"/>
       <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="5"/>
       <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
@@ -476,6 +504,7 @@
       <c r="E15" s="7"/>
       <c r="F15" s="5"/>
       <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5"/>
@@ -485,51 +514,57 @@
       <c r="E16" s="7"/>
       <c r="F16" s="5"/>
       <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="10"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
       <c r="F17" s="5"/>
       <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
       <c r="F18" s="5"/>
       <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
       <c r="F19" s="5"/>
       <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="5"/>
       <c r="E20" s="7"/>
       <c r="F20" s="5"/>
       <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="5"/>
       <c r="E21" s="7"/>
       <c r="F21" s="5"/>
       <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
@@ -539,15 +574,17 @@
       <c r="E22" s="7"/>
       <c r="F22" s="5"/>
       <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="5"/>
       <c r="E23" s="7"/>
       <c r="F23" s="5"/>
       <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5"/>
@@ -557,6 +594,7 @@
       <c r="E24" s="7"/>
       <c r="F24" s="5"/>
       <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" s="8" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5"/>
@@ -566,6 +604,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="5"/>
       <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
